--- a/database/db_export.xlsx
+++ b/database/db_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avalonia\ep_mdk0102\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD8AD73-CD70-4001-BC93-59A226ABD268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB9EF8-8EAE-4758-B63C-B1AF12590F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cities" sheetId="1" r:id="rId1"/>
@@ -10977,7 +10977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11003,7 +11003,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11312,8 +11311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C1098"/>
+    <sheetView topLeftCell="A1064" workbookViewId="0">
+      <selection activeCell="U1071" sqref="U1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23318,88 +23317,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="37.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="37" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="34.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="38" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="37.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="37" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="34.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>3473</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>3481</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>3482</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3474</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>3234</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>3475</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>3476</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>3477</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>3478</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>3479</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>3307</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>3574</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>3483</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>0.375</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>3553</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>3533</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="26">
         <v>1</v>
       </c>
       <c r="M2"/>
@@ -23408,37 +23407,37 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>3575</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>3484</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>3554</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="26">
         <v>1</v>
       </c>
       <c r="M3"/>
@@ -23447,37 +23446,37 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>3576</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>3485</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>3555</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="26">
         <v>1</v>
       </c>
       <c r="M4"/>
@@ -23486,37 +23485,37 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>3577</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>3486</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.375</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>3556</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>3533</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="26">
         <v>4</v>
       </c>
       <c r="M5"/>
@@ -23525,37 +23524,37 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>3578</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>3487</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>3557</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <v>4</v>
       </c>
       <c r="M6"/>
@@ -23564,37 +23563,37 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>3579</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>3488</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>3558</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>4</v>
       </c>
       <c r="M7"/>
@@ -23603,37 +23602,37 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>3580</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>3489</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>1</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>0.375</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>3559</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>3533</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>5</v>
       </c>
       <c r="M8"/>
@@ -23642,76 +23641,76 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>3581</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>3490</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>2</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>3560</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="26">
         <v>5</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="6"/>
       <c r="O9"/>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>3582</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>3491</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>2</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>3561</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <v>5</v>
       </c>
       <c r="M10"/>
@@ -23720,37 +23719,37 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>3583</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>3492</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>1</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>0.375</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>3562</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>3533</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="26">
         <v>6</v>
       </c>
       <c r="M11"/>
@@ -23759,37 +23758,37 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>3584</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>3493</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>1</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>3563</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="26">
         <v>6</v>
       </c>
       <c r="M12"/>
@@ -23798,37 +23797,37 @@
       <c r="Q12"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>3585</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>3494</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>2</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>3564</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <v>6</v>
       </c>
       <c r="M13"/>
@@ -23837,37 +23836,37 @@
       <c r="Q13"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>3586</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>3495</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>1</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <v>0.375</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>3565</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>3533</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="26">
         <v>7</v>
       </c>
       <c r="M14"/>
@@ -23876,37 +23875,37 @@
       <c r="Q14"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>3587</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>3496</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>2</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>3566</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <v>7</v>
       </c>
       <c r="M15"/>
@@ -23915,37 +23914,37 @@
       <c r="Q15"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>3588</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>3497</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>3</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>3567</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="26">
         <v>7</v>
       </c>
       <c r="M16"/>
@@ -23954,37 +23953,37 @@
       <c r="Q16"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>3589</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>3498</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>1</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>0.375</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>3568</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="26">
         <v>11</v>
       </c>
       <c r="M17"/>
@@ -23993,37 +23992,37 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>3590</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>3499</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>1</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>3569</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="26">
         <v>11</v>
       </c>
       <c r="M18"/>
@@ -24032,37 +24031,37 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>3591</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>3500</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>1</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>3570</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="26">
         <v>11</v>
       </c>
       <c r="M19"/>
@@ -24071,37 +24070,37 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>3592</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>3501</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>1</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>0.375</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>3571</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="26">
         <v>14</v>
       </c>
       <c r="M20"/>
@@ -24110,37 +24109,37 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>3593</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>3502</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>1</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>3572</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="26">
         <v>14</v>
       </c>
       <c r="M21"/>
@@ -24149,34 +24148,34 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>3594</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>3503</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>2</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>3573</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="26">
         <v>14</v>
       </c>
       <c r="M22"/>
@@ -24185,326 +24184,326 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>3595</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>3504</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>1</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="29">
         <v>0.375</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>3554</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>3596</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>3505</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>1</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>3555</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>3597</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>3506</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>1</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>3556</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>3598</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>3507</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <v>1</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="29">
         <v>0.375</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>3560</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>3599</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>3508</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>2</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>3561</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="26">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>3600</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>3509</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <v>2</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>3562</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="26">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>3601</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>3510</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <v>1</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="29">
         <v>0.375</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>3564</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>3602</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>3511</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>1</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="29">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>3565</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>3603</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>3512</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>2</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>3566</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="30"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="30"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29045,7 +29044,7 @@
       <c r="K1" s="1" t="s">
         <v>3152</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>3381</v>
       </c>
     </row>
@@ -29661,38 +29660,38 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>3532</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>2979</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>2980</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>2981</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>32339</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <v>22</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>3021</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>3051</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>3074</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <v>1</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -30013,40 +30012,40 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>3542</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>3101</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>2968</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>3102</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>3108</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>8</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>3118</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="19" t="s">
         <v>3052</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>3151</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <v>1</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>3</v>
       </c>
-      <c r="L31" s="20"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -30276,7 +30275,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>3550</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -30340,38 +30339,38 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>3552</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>3182</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>3183</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>3161</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="24">
         <v>29941</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="23">
         <v>63</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="25" t="s">
         <v>3193</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="23" t="s">
         <v>3451</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>3233</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="23">
         <v>1</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -30407,7 +30406,7 @@
       <c r="K42" s="6">
         <v>1</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="17">
         <v>1</v>
       </c>
       <c r="M42" t="s">
@@ -30448,7 +30447,7 @@
       <c r="K43" s="6">
         <v>1</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="17">
         <v>1</v>
       </c>
     </row>
@@ -30486,7 +30485,7 @@
       <c r="K44" s="6">
         <v>2</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="17">
         <v>2</v>
       </c>
     </row>
@@ -30524,7 +30523,7 @@
       <c r="K45" s="6">
         <v>3</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="17">
         <v>3</v>
       </c>
     </row>
@@ -30562,7 +30561,7 @@
       <c r="K46" s="6">
         <v>2</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="17">
         <v>2</v>
       </c>
     </row>
@@ -30600,7 +30599,7 @@
       <c r="K47" s="6">
         <v>4</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="17">
         <v>4</v>
       </c>
     </row>
@@ -30638,12 +30637,12 @@
       <c r="K48" s="6">
         <v>1</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="31" t="s">
         <v>3560</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -30676,7 +30675,7 @@
       <c r="K49" s="6">
         <v>5</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="17">
         <v>5</v>
       </c>
     </row>
@@ -30714,7 +30713,7 @@
       <c r="K50" s="6">
         <v>2</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="17">
         <v>2</v>
       </c>
     </row>
@@ -30752,7 +30751,7 @@
       <c r="K51" s="6">
         <v>4</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="17">
         <v>4</v>
       </c>
     </row>
@@ -30790,7 +30789,7 @@
       <c r="K52" s="6">
         <v>4</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="17">
         <v>4</v>
       </c>
     </row>
@@ -30828,7 +30827,7 @@
       <c r="K53" s="6">
         <v>5</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="17">
         <v>5</v>
       </c>
     </row>
@@ -30866,7 +30865,7 @@
       <c r="K54" s="6">
         <v>3</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="17">
         <v>3</v>
       </c>
     </row>
@@ -30904,7 +30903,7 @@
       <c r="K55" s="6">
         <v>3</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="17">
         <v>3</v>
       </c>
     </row>
@@ -30942,7 +30941,7 @@
       <c r="K56" s="6">
         <v>3</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="17">
         <v>3</v>
       </c>
     </row>
@@ -30980,7 +30979,7 @@
       <c r="K57" s="6">
         <v>5</v>
       </c>
-      <c r="L57" s="18">
+      <c r="L57" s="17">
         <v>5</v>
       </c>
     </row>
@@ -31018,7 +31017,7 @@
       <c r="K58" s="6">
         <v>5</v>
       </c>
-      <c r="L58" s="18">
+      <c r="L58" s="17">
         <v>5</v>
       </c>
     </row>
@@ -31056,7 +31055,7 @@
       <c r="K59" s="6">
         <v>2</v>
       </c>
-      <c r="L59" s="18">
+      <c r="L59" s="17">
         <v>2</v>
       </c>
     </row>
@@ -31094,7 +31093,7 @@
       <c r="K60" s="6">
         <v>4</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L60" s="17">
         <v>4</v>
       </c>
     </row>
@@ -31132,7 +31131,7 @@
       <c r="K61" s="6">
         <v>5</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L61" s="17">
         <v>5</v>
       </c>
     </row>
@@ -31170,7 +31169,7 @@
       <c r="K62" s="6">
         <v>2</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L62" s="17">
         <v>2</v>
       </c>
     </row>
@@ -31194,10 +31193,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>3381</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>3382</v>
       </c>
     </row>
@@ -31205,7 +31204,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>3308</v>
       </c>
     </row>
@@ -31213,7 +31212,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>3309</v>
       </c>
     </row>
@@ -31221,7 +31220,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>3310</v>
       </c>
     </row>
@@ -31229,7 +31228,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3311</v>
       </c>
     </row>
@@ -31237,7 +31236,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>3158</v>
       </c>
     </row>
@@ -31250,8 +31249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE26733-76DE-42B0-BE87-0A3A69BF4F7F}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31281,7 +31280,7 @@
       <c r="A2" t="s">
         <v>3055</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>2982</v>
       </c>
       <c r="C2" t="s">
@@ -31564,7 +31563,7 @@
       <c r="A22" s="12" t="s">
         <v>3142</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>3122</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -31707,7 +31706,7 @@
       <c r="A32" s="12" t="s">
         <v>3224</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="18" t="s">
         <v>3204</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -31752,7 +31751,7 @@
       <c r="A35" t="s">
         <v>3227</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="18" t="s">
         <v>3207</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -32366,321 +32365,321 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="7" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>3392</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>44640</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>70</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>3413</v>
       </c>
       <c r="G7" t="s">
         <v>3519</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>3393</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>44783</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>90</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>3414</v>
       </c>
       <c r="G8" t="s">
         <v>3520</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>3394</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>44788</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>80</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>3415</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>3395</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>44594</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>78</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>3416</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+    <row r="11" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>3396</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>45171</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>3</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>78</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>3417</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>3397</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>45146</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>67</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>3418</v>
       </c>
       <c r="G12" t="s">
         <v>3522</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>3398</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>45228</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>3</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>56</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>3419</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+    <row r="14" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>3399</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>45227</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>3</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>45</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>3420</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+    <row r="15" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>3400</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>44770</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>78</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>3421</v>
       </c>
       <c r="G15" t="s">
         <v>3521</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+    <row r="16" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>3401</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>44715</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>3</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>67</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>3422</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>3402</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>44697</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>1</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>7</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>3423</v>
       </c>
       <c r="G17" t="s">
         <v>3525</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>3403</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>45257</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>3</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>8</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>3424</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>3404</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>44729</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>3</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>9</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>3425</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+    <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>3405</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>44591</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>3</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>3426</v>
       </c>
       <c r="G20" t="s">
         <v>3527</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+    <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>3406</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>45200</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>3</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>5</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>3407</v>
       </c>
       <c r="G21" t="s">

--- a/database/db_export.xlsx
+++ b/database/db_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avalonia\ep_mdk0102\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB9EF8-8EAE-4758-B63C-B1AF12590F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB60500F-94F6-4298-83E8-6969E2A3473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2250" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cities" sheetId="1" r:id="rId1"/>
@@ -28990,7 +28990,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31249,8 +31249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE26733-76DE-42B0-BE87-0A3A69BF4F7F}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
